--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H2">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.13976306460805</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N2">
-        <v>1.13976306460805</v>
+        <v>3.442957</v>
       </c>
       <c r="O2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q2">
-        <v>1.64443573998384</v>
+        <v>1.697372445289111</v>
       </c>
       <c r="R2">
-        <v>1.64443573998384</v>
+        <v>15.276352007602</v>
       </c>
       <c r="S2">
-        <v>0.0980595566252227</v>
+        <v>0.08294759411951549</v>
       </c>
       <c r="T2">
-        <v>0.0980595566252227</v>
+        <v>0.08294759411951548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H3">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.325944761433446</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N3">
-        <v>0.325944761433446</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q3">
-        <v>0.470268980988594</v>
+        <v>0.3977526239731111</v>
       </c>
       <c r="R3">
-        <v>0.470268980988594</v>
+        <v>3.579773615758</v>
       </c>
       <c r="S3">
-        <v>0.02804266937836683</v>
+        <v>0.01943746836757109</v>
       </c>
       <c r="T3">
-        <v>0.02804266937836683</v>
+        <v>0.01943746836757109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H4">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.397797892585466</v>
+        <v>0.377781</v>
       </c>
       <c r="N4">
-        <v>0.397797892585466</v>
+        <v>1.133343</v>
       </c>
       <c r="O4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="P4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="Q4">
-        <v>0.5739377702002895</v>
+        <v>0.558736336022</v>
       </c>
       <c r="R4">
-        <v>0.5739377702002895</v>
+        <v>5.028627024198</v>
       </c>
       <c r="S4">
-        <v>0.03422455612456004</v>
+        <v>0.02730445810452876</v>
       </c>
       <c r="T4">
-        <v>0.03422455612456004</v>
+        <v>0.02730445810452876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H5">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.572800788946198</v>
+        <v>0.4071873333333333</v>
       </c>
       <c r="N5">
-        <v>0.572800788946198</v>
+        <v>1.221562</v>
       </c>
       <c r="O5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776033</v>
       </c>
       <c r="P5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776032</v>
       </c>
       <c r="Q5">
-        <v>0.8264297365680886</v>
+        <v>0.6022281657924445</v>
       </c>
       <c r="R5">
-        <v>0.8264297365680886</v>
+        <v>5.420053492132</v>
       </c>
       <c r="S5">
-        <v>0.04928093666375967</v>
+        <v>0.02942982702596158</v>
       </c>
       <c r="T5">
-        <v>0.04928093666375967</v>
+        <v>0.02942982702596158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.84962153853665</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H6">
-        <v>3.84962153853665</v>
+        <v>4.436986</v>
       </c>
       <c r="I6">
-        <v>0.5592718738473313</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J6">
-        <v>0.5592718738473313</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13976306460805</v>
+        <v>0.5855753333333333</v>
       </c>
       <c r="N6">
-        <v>1.13976306460805</v>
+        <v>1.756726</v>
       </c>
       <c r="O6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="P6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="Q6">
-        <v>4.387656442343689</v>
+        <v>0.8660631853151112</v>
       </c>
       <c r="R6">
-        <v>4.387656442343689</v>
+        <v>7.794568667836</v>
       </c>
       <c r="S6">
-        <v>0.261640899001777</v>
+        <v>0.04232297854059751</v>
       </c>
       <c r="T6">
-        <v>0.261640899001777</v>
+        <v>0.04232297854059751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J7">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.325944761433446</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N7">
-        <v>0.325944761433446</v>
+        <v>3.442957</v>
       </c>
       <c r="O7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q7">
-        <v>1.254763973987383</v>
+        <v>4.441025093308222</v>
       </c>
       <c r="R7">
-        <v>1.254763973987383</v>
+        <v>39.969225839774</v>
       </c>
       <c r="S7">
-        <v>0.07482299001827489</v>
+        <v>0.2170250541869551</v>
       </c>
       <c r="T7">
-        <v>0.07482299001827489</v>
+        <v>0.2170250541869551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J8">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.397797892585466</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N8">
-        <v>0.397797892585466</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q8">
-        <v>1.531371335281499</v>
+        <v>1.040684611616222</v>
       </c>
       <c r="R8">
-        <v>1.531371335281499</v>
+        <v>9.366161504546</v>
       </c>
       <c r="S8">
-        <v>0.09131739873748715</v>
+        <v>0.05085641929109134</v>
       </c>
       <c r="T8">
-        <v>0.09131739873748715</v>
+        <v>0.05085641929109134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J9">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.572800788946198</v>
+        <v>0.377781</v>
       </c>
       <c r="N9">
-        <v>0.572800788946198</v>
+        <v>1.133343</v>
       </c>
       <c r="O9">
-        <v>0.2351103143901106</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="P9">
-        <v>0.2351103143901106</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="Q9">
-        <v>2.20506625441807</v>
+        <v>1.461884276314</v>
       </c>
       <c r="R9">
-        <v>2.20506625441807</v>
+        <v>13.156958486826</v>
       </c>
       <c r="S9">
-        <v>0.1314905860897923</v>
+        <v>0.07143970313524284</v>
       </c>
       <c r="T9">
-        <v>0.1314905860897923</v>
+        <v>0.07143970313524285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.59086508686868</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
-        <v>1.59086508686868</v>
+        <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.2311204073607595</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J10">
-        <v>0.2311204073607595</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.13976306460805</v>
+        <v>0.4071873333333333</v>
       </c>
       <c r="N10">
-        <v>1.13976306460805</v>
+        <v>1.221562</v>
       </c>
       <c r="O10">
-        <v>0.467824167880824</v>
+        <v>0.1460955479776033</v>
       </c>
       <c r="P10">
-        <v>0.467824167880824</v>
+        <v>0.1460955479776032</v>
       </c>
       <c r="Q10">
-        <v>1.813209266787398</v>
+        <v>1.575676807764889</v>
       </c>
       <c r="R10">
-        <v>1.813209266787398</v>
+        <v>14.181091269884</v>
       </c>
       <c r="S10">
-        <v>0.1081237122538244</v>
+        <v>0.07700054320827281</v>
       </c>
       <c r="T10">
-        <v>0.1081237122538244</v>
+        <v>0.07700054320827281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.59086508686868</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
-        <v>1.59086508686868</v>
+        <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.2311204073607595</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J11">
-        <v>0.2311204073607595</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.325944761433446</v>
+        <v>0.5855753333333333</v>
       </c>
       <c r="N11">
-        <v>0.325944761433446</v>
+        <v>1.756726</v>
       </c>
       <c r="O11">
-        <v>0.1337864346789946</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="P11">
-        <v>0.1337864346789946</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="Q11">
-        <v>0.5185341412122102</v>
+        <v>2.265977834770222</v>
       </c>
       <c r="R11">
-        <v>0.5185341412122102</v>
+        <v>20.393800512932</v>
       </c>
       <c r="S11">
-        <v>0.03092077528235286</v>
+        <v>0.1107343354394588</v>
       </c>
       <c r="T11">
-        <v>0.03092077528235286</v>
+        <v>0.1107343354394589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H12">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.397797892585466</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N12">
-        <v>0.397797892585466</v>
+        <v>3.442957</v>
       </c>
       <c r="O12">
-        <v>0.1632790830500708</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P12">
-        <v>0.1632790830500708</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q12">
-        <v>0.6328427789441552</v>
+        <v>0.120393320376</v>
       </c>
       <c r="R12">
-        <v>0.6328427789441552</v>
+        <v>1.083539883384</v>
       </c>
       <c r="S12">
-        <v>0.03773712818802365</v>
+        <v>0.005883408971887889</v>
       </c>
       <c r="T12">
-        <v>0.03773712818802365</v>
+        <v>0.005883408971887888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.104904</v>
+      </c>
+      <c r="H13">
+        <v>0.314712</v>
+      </c>
+      <c r="I13">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J13">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P13">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q13">
+        <v>0.028212287304</v>
+      </c>
+      <c r="R13">
+        <v>0.2539105857359999</v>
+      </c>
+      <c r="S13">
+        <v>0.001378684662267366</v>
+      </c>
+      <c r="T13">
+        <v>0.001378684662267366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.104904</v>
+      </c>
+      <c r="H14">
+        <v>0.314712</v>
+      </c>
+      <c r="I14">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J14">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.377781</v>
+      </c>
+      <c r="N14">
+        <v>1.133343</v>
+      </c>
+      <c r="O14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q14">
+        <v>0.039630738024</v>
+      </c>
+      <c r="R14">
+        <v>0.356676642216</v>
+      </c>
+      <c r="S14">
+        <v>0.00193668418583977</v>
+      </c>
+      <c r="T14">
+        <v>0.00193668418583977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.104904</v>
+      </c>
+      <c r="H15">
+        <v>0.314712</v>
+      </c>
+      <c r="I15">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J15">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.221562</v>
+      </c>
+      <c r="O15">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P15">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q15">
+        <v>0.042715580016</v>
+      </c>
+      <c r="R15">
+        <v>0.384440220144</v>
+      </c>
+      <c r="S15">
+        <v>0.00208743496666305</v>
+      </c>
+      <c r="T15">
+        <v>0.00208743496666305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.104904</v>
+      </c>
+      <c r="H16">
+        <v>0.314712</v>
+      </c>
+      <c r="I16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.756726</v>
+      </c>
+      <c r="O16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q16">
+        <v>0.061429194768</v>
+      </c>
+      <c r="R16">
+        <v>0.552862752912</v>
+      </c>
+      <c r="S16">
+        <v>0.003001936274414326</v>
+      </c>
+      <c r="T16">
+        <v>0.003001936274414326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.192776</v>
+      </c>
+      <c r="H17">
+        <v>0.578328</v>
+      </c>
+      <c r="I17">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J17">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.442957</v>
+      </c>
+      <c r="O17">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P17">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q17">
+        <v>0.2212398262106666</v>
+      </c>
+      <c r="R17">
+        <v>1.991158435896</v>
+      </c>
+      <c r="S17">
+        <v>0.01081159963361416</v>
+      </c>
+      <c r="T17">
+        <v>0.01081159963361416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.192776</v>
+      </c>
+      <c r="H18">
+        <v>0.578328</v>
+      </c>
+      <c r="I18">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J18">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P18">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q18">
+        <v>0.05184408504266666</v>
+      </c>
+      <c r="R18">
+        <v>0.4665967653839999</v>
+      </c>
+      <c r="S18">
+        <v>0.002533528887871328</v>
+      </c>
+      <c r="T18">
+        <v>0.002533528887871328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="H13">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="I13">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="J13">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="N13">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="O13">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="P13">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="Q13">
-        <v>0.9112487768653418</v>
-      </c>
-      <c r="R13">
-        <v>0.9112487768653418</v>
-      </c>
-      <c r="S13">
-        <v>0.05433879163655859</v>
-      </c>
-      <c r="T13">
-        <v>0.05433879163655859</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.192776</v>
+      </c>
+      <c r="H19">
+        <v>0.578328</v>
+      </c>
+      <c r="I19">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J19">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.377781</v>
+      </c>
+      <c r="N19">
+        <v>1.133343</v>
+      </c>
+      <c r="O19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q19">
+        <v>0.07282711005599998</v>
+      </c>
+      <c r="R19">
+        <v>0.6554439905039999</v>
+      </c>
+      <c r="S19">
+        <v>0.003558932267687099</v>
+      </c>
+      <c r="T19">
+        <v>0.003558932267687099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.192776</v>
+      </c>
+      <c r="H20">
+        <v>0.578328</v>
+      </c>
+      <c r="I20">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J20">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.221562</v>
+      </c>
+      <c r="O20">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P20">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q20">
+        <v>0.07849594537066666</v>
+      </c>
+      <c r="R20">
+        <v>0.7064635083359999</v>
+      </c>
+      <c r="S20">
+        <v>0.003835958239280067</v>
+      </c>
+      <c r="T20">
+        <v>0.003835958239280066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.192776</v>
+      </c>
+      <c r="H21">
+        <v>0.578328</v>
+      </c>
+      <c r="I21">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J21">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.756726</v>
+      </c>
+      <c r="O21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q21">
+        <v>0.1128848704586667</v>
+      </c>
+      <c r="R21">
+        <v>1.015963834128</v>
+      </c>
+      <c r="S21">
+        <v>0.005516484283120721</v>
+      </c>
+      <c r="T21">
+        <v>0.005516484283120721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H22">
+        <v>5.087078</v>
+      </c>
+      <c r="I22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.442957</v>
+      </c>
+      <c r="O22">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P22">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q22">
+        <v>1.946065645516222</v>
+      </c>
+      <c r="R22">
+        <v>17.514590809646</v>
+      </c>
+      <c r="S22">
+        <v>0.09510079166315076</v>
+      </c>
+      <c r="T22">
+        <v>0.09510079166315075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H23">
+        <v>5.087078</v>
+      </c>
+      <c r="I23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P23">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q23">
+        <v>0.4560299768482222</v>
+      </c>
+      <c r="R23">
+        <v>4.104269791634</v>
+      </c>
+      <c r="S23">
+        <v>0.02228537969431655</v>
+      </c>
+      <c r="T23">
+        <v>0.02228537969431655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H24">
+        <v>5.087078</v>
+      </c>
+      <c r="I24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.377781</v>
+      </c>
+      <c r="N24">
+        <v>1.133343</v>
+      </c>
+      <c r="O24">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P24">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q24">
+        <v>0.640600471306</v>
+      </c>
+      <c r="R24">
+        <v>5.765404241754</v>
+      </c>
+      <c r="S24">
+        <v>0.03130501383720165</v>
+      </c>
+      <c r="T24">
+        <v>0.03130501383720165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H25">
+        <v>5.087078</v>
+      </c>
+      <c r="I25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.221562</v>
+      </c>
+      <c r="O25">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P25">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q25">
+        <v>0.6904645750928889</v>
+      </c>
+      <c r="R25">
+        <v>6.214181175836</v>
+      </c>
+      <c r="S25">
+        <v>0.03374178453742576</v>
+      </c>
+      <c r="T25">
+        <v>0.03374178453742575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H26">
+        <v>5.087078</v>
+      </c>
+      <c r="I26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.756726</v>
+      </c>
+      <c r="O26">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P26">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q26">
+        <v>0.9929557985142222</v>
+      </c>
+      <c r="R26">
+        <v>8.936602186628001</v>
+      </c>
+      <c r="S26">
+        <v>0.04852399647606409</v>
+      </c>
+      <c r="T26">
+        <v>0.04852399647606408</v>
       </c>
     </row>
   </sheetData>
